--- a/hh_video_data.xlsx
+++ b/hh_video_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,51 +37,52 @@
     <t xml:space="preserve">frame_length</t>
   </si>
   <si>
-    <t xml:space="preserve">num_of_frames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20180806_1</t>
+    <t xml:space="preserve">1_20180806</t>
   </si>
   <si>
     <t xml:space="preserve">710, 865, 910, 1040, 1100, 1130, 1210, 1370, 1400, 1460, 1540, 1600</t>
   </si>
   <si>
-    <t xml:space="preserve">20180920_2</t>
+    <t xml:space="preserve">2_20180920</t>
   </si>
   <si>
     <t xml:space="preserve">215, 325</t>
   </si>
   <si>
-    <t xml:space="preserve">20180920_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20180920_4</t>
+    <t xml:space="preserve">3_20180920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4_20180920</t>
   </si>
   <si>
     <t xml:space="preserve">160, 175, 190, 300, 415, 430, 445</t>
   </si>
   <si>
-    <t xml:space="preserve">20180920_5</t>
+    <t xml:space="preserve">5_20180920</t>
   </si>
   <si>
     <t xml:space="preserve">215, 275, 465, 480, 600</t>
   </si>
   <si>
-    <t xml:space="preserve">20180920_6</t>
+    <t xml:space="preserve">6_20180920</t>
   </si>
   <si>
     <t xml:space="preserve">1190, 1490, 1795</t>
   </si>
   <si>
-    <t xml:space="preserve">20180920_7</t>
+    <t xml:space="preserve">7_20180920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200, 215, 270, 465, 480, 590, 605</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -148,8 +149,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -174,18 +183,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.7959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -201,11 +212,8 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -213,19 +221,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>30</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1718</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,19 +238,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>20180920</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>373</v>
+      <c r="E3" s="2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,16 +255,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>20180920</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>300</v>
+      <c r="E4" s="2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -270,19 +269,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>20180920</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>572</v>
+      <c r="E5" s="2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -290,19 +286,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>20180920</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>651</v>
+      <c r="E6" s="2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,19 +303,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>20180920</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>60</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1663</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,10 +320,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>20180920</v>
+      <c r="E8" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/hh_video_data.xlsx
+++ b/hh_video_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">video_id</t>
   </si>
@@ -62,18 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">215, 275, 465, 480, 600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6_20180920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1190, 1490, 1795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7_20180920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200, 215, 270, 465, 480, 590, 605</t>
   </si>
 </sst>
 </file>
@@ -183,20 +171,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.5612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -295,40 +283,6 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>20180920</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>20180920</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="n">
         <v>15</v>
       </c>
     </row>

--- a/hh_video_data.xlsx
+++ b/hh_video_data.xlsx
@@ -5,22 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t xml:space="preserve">video_id</t>
   </si>
@@ -34,19 +34,25 @@
     <t xml:space="preserve">target_frame</t>
   </si>
   <si>
-    <t xml:space="preserve">frame_length</t>
+    <t xml:space="preserve">fps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height</t>
   </si>
   <si>
     <t xml:space="preserve">1_20180806</t>
   </si>
   <si>
-    <t xml:space="preserve">710, 865, 910, 1040, 1100, 1130, 1210, 1370, 1400, 1460, 1540, 1600</t>
+    <t xml:space="preserve">586-667, 708-754, 867-902, 1031-1083, 1118-1145, 1191-1233, 1374-1435, 1541-1580, 1583-1635</t>
   </si>
   <si>
     <t xml:space="preserve">2_20180920</t>
   </si>
   <si>
-    <t xml:space="preserve">215, 325</t>
+    <t xml:space="preserve">153-176, 205-245</t>
   </si>
   <si>
     <t xml:space="preserve">3_20180920</t>
@@ -55,13 +61,28 @@
     <t xml:space="preserve">4_20180920</t>
   </si>
   <si>
-    <t xml:space="preserve">160, 175, 190, 300, 415, 430, 445</t>
+    <t xml:space="preserve">163-210, 264-316, 411-463</t>
   </si>
   <si>
     <t xml:space="preserve">5_20180920</t>
   </si>
   <si>
-    <t xml:space="preserve">215, 275, 465, 480, 600</t>
+    <t xml:space="preserve">194-228, 270-300, 460-504, 586-619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94945-94965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8_20181122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1260-1349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_20181203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63977-64030, 64168-64225</t>
   </si>
 </sst>
 </file>
@@ -72,10 +93,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#"/>
   </numFmts>
-  <fonts count="4">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+  <fonts count="6">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -93,6 +115,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,12 +138,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -142,16 +184,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -171,128 +213,258 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.5612244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9109311740891"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="74.6599190283401"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5546558704453"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>20180806</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>20180806</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20181119</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>640</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="B8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>20181122</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>640</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>20180920</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>20180920</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>20180920</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>20180920</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>15</v>
+      <c r="B9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>20181203</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>640</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>